--- a/files/templates/CLASS 11 COMMERCE AE.xlsx
+++ b/files/templates/CLASS 11 COMMERCE AE.xlsx
@@ -352,9 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,6 +384,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,22 +713,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -736,22 +736,22 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
@@ -759,22 +759,22 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -794,46 +794,46 @@
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="4"/>
@@ -846,22 +846,22 @@
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -883,7 +883,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="5"/>
@@ -907,7 +907,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="5"/>
@@ -931,7 +931,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="5"/>
@@ -955,7 +955,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="5"/>
@@ -979,7 +979,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="5"/>
@@ -1003,7 +1003,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="5"/>
@@ -1027,7 +1027,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="5"/>
@@ -1051,7 +1051,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="5"/>
@@ -1075,7 +1075,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="5"/>
@@ -1099,7 +1099,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="5"/>
@@ -1123,7 +1123,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="5"/>
@@ -1147,7 +1147,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="5"/>
@@ -1171,7 +1171,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="5"/>
@@ -1195,7 +1195,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="5"/>
@@ -1219,7 +1219,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="5"/>
@@ -1243,7 +1243,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="5"/>
@@ -1267,7 +1267,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="22"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="23"/>
+      <c r="L26" s="22"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
@@ -1323,7 +1323,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="23"/>
+      <c r="L27" s="22"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
@@ -1339,7 +1339,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="23"/>
+      <c r="L28" s="22"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="23"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="22"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
@@ -1403,7 +1403,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="22"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
@@ -1419,7 +1419,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="22"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="9"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="23"/>
+      <c r="L34" s="22"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="23"/>
+      <c r="L35" s="22"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
@@ -1467,7 +1467,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="23"/>
+      <c r="L36" s="22"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
@@ -1483,7 +1483,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="9"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="23"/>
+      <c r="L37" s="22"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
@@ -1499,7 +1499,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="9"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="23"/>
+      <c r="L38" s="22"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
@@ -1515,7 +1515,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="23"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
@@ -1531,7 +1531,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="23"/>
+      <c r="L40" s="22"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="23"/>
+      <c r="L41" s="22"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
@@ -1563,7 +1563,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="23"/>
+      <c r="L42" s="22"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
@@ -1579,7 +1579,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="23"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
@@ -1595,7 +1595,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="23"/>
+      <c r="L44" s="22"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
@@ -1611,7 +1611,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="23"/>
+      <c r="L45" s="22"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="23"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
@@ -1643,7 +1643,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="23"/>
+      <c r="L47" s="22"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="23"/>
+      <c r="L48" s="22"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
@@ -1675,7 +1675,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="23"/>
+      <c r="L49" s="22"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
@@ -1691,7 +1691,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="23"/>
+      <c r="L50" s="22"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
@@ -1707,7 +1707,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="23"/>
+      <c r="L51" s="22"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="23"/>
+      <c r="L52" s="22"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
@@ -1739,7 +1739,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
-      <c r="L53" s="23"/>
+      <c r="L53" s="22"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
@@ -1755,7 +1755,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
-      <c r="L54" s="23"/>
+      <c r="L54" s="22"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
@@ -1771,7 +1771,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
-      <c r="L55" s="23"/>
+      <c r="L55" s="22"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
@@ -1787,7 +1787,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
-      <c r="L56" s="24"/>
+      <c r="L56" s="23"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>

--- a/files/templates/CLASS 11 COMMERCE AE.xlsx
+++ b/files/templates/CLASS 11 COMMERCE AE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -31,19 +31,7 @@
     <t>ANNUAL EXAM</t>
   </si>
   <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
     <t>Marks</t>
-  </si>
-  <si>
-    <t>Physical Education (0)/ Home Science (1)/ Information Practice (2)</t>
-  </si>
-  <si>
-    <t>Maths(0)/   Biology(1)</t>
   </si>
   <si>
     <t>Painting (0)/ Hindustani Music (1)</t>
@@ -52,7 +40,22 @@
     <t>Scholar Number</t>
   </si>
   <si>
-    <t>CLASS 11-SCIENCE (2017)</t>
+    <t>CLASS 11-COMMERCE (2017)</t>
+  </si>
+  <si>
+    <t>Business Studies</t>
+  </si>
+  <si>
+    <t>Accountancy</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Physical Education (0)/ Home Science (1)/ Information Practice (2)/ Maths (3) / Hindi (4)</t>
+  </si>
+  <si>
+    <t>MAXIMUM MARKS</t>
   </si>
   <si>
     <t>Attendance</t>
@@ -61,7 +64,13 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>MAXIMUM MARKS</t>
+    <t>^</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>0/1/2/3/4</t>
   </si>
 </sst>
 </file>
@@ -109,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -129,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -228,17 +243,21 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,48 +294,24 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -325,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,41 +345,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,6 +381,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -688,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,86 +695,85 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+    <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -792,50 +784,48 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:22" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:21" ht="66.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="J6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="15" t="s">
+      <c r="L6" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="M6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -843,25 +833,49 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="19">
+        <v>80</v>
+      </c>
+      <c r="D7" s="19">
+        <v>80</v>
+      </c>
+      <c r="E7" s="19">
+        <v>80</v>
+      </c>
+      <c r="F7" s="19">
+        <v>80</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="19">
+        <v>80</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="19">
+        <v>80</v>
+      </c>
+      <c r="K7" s="19">
+        <f>C7+D7+E7+F7+H7+J7</f>
+        <v>480</v>
+      </c>
+      <c r="L7" s="19">
+        <v>150</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -869,9 +883,8 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -880,12 +893,15 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="21">
+        <f>SUMIF(C8:J8,"&lt;&gt;#AB")-G8-I8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="12"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -893,9 +909,8 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -904,12 +919,15 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="21">
+        <f t="shared" ref="K9:K56" si="0">SUMIF(C9:J9,"&lt;&gt;#AB")-G9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -917,9 +935,8 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -928,12 +945,15 @@
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="12"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -941,9 +961,8 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -952,12 +971,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="12"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -965,9 +987,8 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -976,12 +997,15 @@
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
@@ -989,9 +1013,8 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1000,12 +1023,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="12"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -1013,9 +1039,8 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1024,12 +1049,15 @@
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="12"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1037,9 +1065,8 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1048,12 +1075,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="12"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1061,9 +1091,8 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1072,12 +1101,15 @@
       <c r="F16" s="2"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1085,9 +1117,8 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1096,12 +1127,15 @@
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="20"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="12"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -1109,9 +1143,8 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1120,12 +1153,15 @@
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1133,9 +1169,8 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1144,12 +1179,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="20"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1157,9 +1195,8 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1168,12 +1205,15 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="20"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -1181,9 +1221,8 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1192,12 +1231,15 @@
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1205,9 +1247,8 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1216,12 +1257,15 @@
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="20"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1229,9 +1273,8 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1240,12 +1283,15 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="21"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -1253,9 +1299,8 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1264,12 +1309,15 @@
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="20"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1277,9 +1325,8 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1288,14 +1335,16 @@
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="22"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="13"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1304,14 +1353,16 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="22"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1320,14 +1371,16 @@
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="22"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1336,14 +1389,16 @@
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="22"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1352,14 +1407,16 @@
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="22"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="13"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1368,14 +1425,16 @@
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="22"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="13"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1384,14 +1443,16 @@
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="22"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="13"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1400,14 +1461,16 @@
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="22"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="13"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1416,14 +1479,16 @@
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="22"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="13"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1432,14 +1497,16 @@
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="22"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="13"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1448,14 +1515,16 @@
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="22"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="13"/>
       <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1464,14 +1533,16 @@
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="22"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="13"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1480,14 +1551,16 @@
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="22"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="13"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1496,14 +1569,16 @@
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="22"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -1512,14 +1587,16 @@
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="22"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="13"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -1528,14 +1605,16 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="22"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="13"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1544,14 +1623,16 @@
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="22"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="13"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -1560,14 +1641,16 @@
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="22"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="13"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1576,14 +1659,16 @@
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="22"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="13"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1592,14 +1677,16 @@
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="22"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="13"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -1608,14 +1695,16 @@
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="22"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="13"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1624,14 +1713,16 @@
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="22"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="13"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -1640,14 +1731,16 @@
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="22"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="13"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1656,14 +1749,16 @@
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="22"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="13"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -1672,14 +1767,16 @@
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="22"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="13"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1688,14 +1785,16 @@
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="22"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="13"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1704,14 +1803,16 @@
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="22"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="13"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -1720,14 +1821,16 @@
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="22"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="13"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -1736,14 +1839,16 @@
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="22"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="13"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -1752,14 +1857,16 @@
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="22"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="13"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -1768,14 +1875,16 @@
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="22"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="13"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1784,18 +1893,20 @@
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="23"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="13"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/files/templates/CLASS 11 COMMERCE AE.xlsx
+++ b/files/templates/CLASS 11 COMMERCE AE.xlsx
@@ -52,9 +52,6 @@
     <t>Economics</t>
   </si>
   <si>
-    <t>Physical Education (0)/ Home Science (1)/ Information Practice (2)/ Maths (3) / Hindi (4)</t>
-  </si>
-  <si>
     <t>MAXIMUM MARKS</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>0/1/2/3/4</t>
+  </si>
+  <si>
+    <t>Physical Education (0)/ Home Science (1)/ Informatics Practices (2)/ Maths (3) / Hindi (4)</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,7 +684,7 @@
   <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,21 +705,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -728,21 +728,21 @@
       <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -751,21 +751,21 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>5</v>
@@ -820,10 +820,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -836,10 +836,10 @@
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="19">
         <v>80</v>
@@ -854,13 +854,13 @@
         <v>80</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="19">
         <v>80</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="19">
         <v>80</v>
@@ -873,7 +873,7 @@
         <v>150</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -895,7 +895,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f>SUMIF(C8:J8,"&lt;&gt;#AB")-G8-I8</f>
         <v>0</v>
       </c>
@@ -921,7 +921,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <f t="shared" ref="K9:K56" si="0">SUMIF(C9:J9,"&lt;&gt;#AB")-G9-I9</f>
         <v>0</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -973,7 +973,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="21">
+      <c r="K11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="21">
+      <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="21">
+      <c r="K16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1181,7 +1181,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="21">
+      <c r="K19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="21">
+      <c r="K20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="21">
+      <c r="K21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="21">
+      <c r="K22" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="21">
+      <c r="K23" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="21">
+      <c r="K24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="21">
+      <c r="K25" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="21">
+      <c r="K27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1391,7 +1391,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="21">
+      <c r="K28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="21">
+      <c r="K29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
-      <c r="K30" s="21">
+      <c r="K30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="21">
+      <c r="K31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="9"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="21">
+      <c r="K32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="H33" s="10"/>
       <c r="I33" s="9"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="21">
+      <c r="K33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1499,7 +1499,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="9"/>
       <c r="J34" s="10"/>
-      <c r="K34" s="21">
+      <c r="K34" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="H35" s="10"/>
       <c r="I35" s="9"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="21">
+      <c r="K35" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1535,7 +1535,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="9"/>
       <c r="J36" s="10"/>
-      <c r="K36" s="21">
+      <c r="K36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1553,7 +1553,7 @@
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
       <c r="J37" s="10"/>
-      <c r="K37" s="21">
+      <c r="K37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="9"/>
       <c r="J38" s="10"/>
-      <c r="K38" s="21">
+      <c r="K38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="9"/>
       <c r="J39" s="10"/>
-      <c r="K39" s="21">
+      <c r="K39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="H40" s="10"/>
       <c r="I40" s="9"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="21">
+      <c r="K40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="9"/>
       <c r="J41" s="10"/>
-      <c r="K41" s="21">
+      <c r="K41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="21">
+      <c r="K42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="21">
+      <c r="K43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="9"/>
       <c r="J44" s="10"/>
-      <c r="K44" s="21">
+      <c r="K44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="9"/>
       <c r="J45" s="10"/>
-      <c r="K45" s="21">
+      <c r="K45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="9"/>
       <c r="J46" s="10"/>
-      <c r="K46" s="21">
+      <c r="K46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="9"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="21">
+      <c r="K47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="H48" s="10"/>
       <c r="I48" s="9"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="21">
+      <c r="K48" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="9"/>
       <c r="J49" s="10"/>
-      <c r="K49" s="21">
+      <c r="K49" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="H50" s="10"/>
       <c r="I50" s="9"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="21">
+      <c r="K50" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="9"/>
       <c r="J51" s="10"/>
-      <c r="K51" s="21">
+      <c r="K51" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="21">
+      <c r="K52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
       <c r="J53" s="10"/>
-      <c r="K53" s="21">
+      <c r="K53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="9"/>
       <c r="J54" s="10"/>
-      <c r="K54" s="21">
+      <c r="K54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="9"/>
       <c r="J55" s="10"/>
-      <c r="K55" s="21">
+      <c r="K55" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="21">
+      <c r="K56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
